--- a/teaching/traditional_assets/database/data/vietnam/vietnam_electronics_consumer_office.xlsx
+++ b/teaching/traditional_assets/database/data/vietnam/vietnam_electronics_consumer_office.xlsx
@@ -639,37 +639,37 @@
         <v>0.266</v>
       </c>
       <c r="V2">
-        <v>0.03367088607594937</v>
+        <v>0.05</v>
       </c>
       <c r="X2">
-        <v>0.1433878849789072</v>
+        <v>0.1032696664629665</v>
       </c>
       <c r="AB2">
-        <v>0.1339275548456327</v>
+        <v>0.1032696664629665</v>
       </c>
       <c r="AD2">
-        <v>0.906</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.906</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.64</v>
+        <v>-0.266</v>
       </c>
       <c r="AH2">
-        <v>0.102884397002044</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.08765479876160991</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.07494145199063232</v>
+        <v>-0.05263157894736842</v>
       </c>
       <c r="AK2">
-        <v>0.06355511420059583</v>
+        <v>-0.02902662592754256</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -678,10 +678,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.152671755725191</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.8142493638676844</v>
+        <v>-0.3384223918575064</v>
       </c>
     </row>
     <row r="3">
@@ -749,37 +749,37 @@
         <v>0.266</v>
       </c>
       <c r="V3">
-        <v>0.03367088607594937</v>
+        <v>0.05</v>
       </c>
       <c r="X3">
-        <v>0.1433878849789072</v>
+        <v>0.1032696664629665</v>
       </c>
       <c r="AB3">
-        <v>0.1339275548456327</v>
+        <v>0.1032696664629665</v>
       </c>
       <c r="AD3">
-        <v>0.906</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.906</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.64</v>
+        <v>-0.266</v>
       </c>
       <c r="AH3">
-        <v>0.102884397002044</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.08765479876160991</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.07494145199063232</v>
+        <v>-0.05263157894736842</v>
       </c>
       <c r="AK3">
-        <v>0.06355511420059583</v>
+        <v>-0.02902662592754256</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>1.152671755725191</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.8142493638676844</v>
+        <v>-0.3384223918575064</v>
       </c>
     </row>
   </sheetData>
